--- a/public/questions_template.xlsx
+++ b/public/questions_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raph\projects\gifted-v3\smarti-web\smarti-web\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DED54C-1BDB-4A7B-88BF-D80D272D5B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC09FF3-4DFC-4288-83A6-CF88A25EBFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-150" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/questions_template.xlsx
+++ b/public/questions_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raph\projects\gifted-v3\smarti-web\smarti-web\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC09FF3-4DFC-4288-83A6-CF88A25EBFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE93B1F9-AB81-4EFB-8846-7D3F8737F980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-150" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>content</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>תרגול במתמטיקה</t>
+  </si>
+  <si>
+    <t>managerId</t>
   </si>
 </sst>
 </file>
@@ -480,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +494,7 @@
     <col min="8" max="8" width="65.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,8 +525,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -554,8 +560,11 @@
       <c r="J2" t="s">
         <v>31</v>
       </c>
+      <c r="K2">
+        <v>123</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -586,8 +595,11 @@
       <c r="J3" t="s">
         <v>32</v>
       </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -617,6 +629,9 @@
       </c>
       <c r="J4" t="s">
         <v>33</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/public/questions_template.xlsx
+++ b/public/questions_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raph\projects\gifted-v3\smarti-web\smarti-web\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE93B1F9-AB81-4EFB-8846-7D3F8737F980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB6FBB5-4AD5-4BDD-A92F-78BF74C8ED34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="2520" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +494,7 @@
     <col min="8" max="8" width="65.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,8 +528,9 @@
       <c r="K1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -564,7 +565,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -599,7 +600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
